--- a/Expense-Records_6210501001.xlsx
+++ b/Expense-Records_6210501001.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pantchanit/Documents/assignment3_stat_pp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pantc\Documents\assignment3_stat_pp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ACC3BB5-DA16-7C43-A57D-CB91EDEA7A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43259F20-82CB-4C2C-AED1-B33D8429C713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="13344" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="13">
   <si>
     <t>date</t>
   </si>
@@ -69,6 +71,9 @@
   </si>
   <si>
     <t>อุปกรณืเครื่องเขียน</t>
+  </si>
+  <si>
+    <t>Month</t>
   </si>
 </sst>
 </file>
@@ -332,16 +337,16 @@
   </sheetPr>
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="52.33203125" customWidth="1"/>
+    <col min="2" max="2" width="52.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -355,7 +360,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>44565</v>
       </c>
@@ -369,7 +374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>44566</v>
       </c>
@@ -383,7 +388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>44567</v>
       </c>
@@ -397,7 +402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>44568</v>
       </c>
@@ -411,7 +416,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>44569</v>
       </c>
@@ -425,7 +430,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>44570</v>
       </c>
@@ -439,7 +444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>44571</v>
       </c>
@@ -453,7 +458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>44572</v>
       </c>
@@ -467,7 +472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>44573</v>
       </c>
@@ -481,7 +486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>44574</v>
       </c>
@@ -495,7 +500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>44575</v>
       </c>
@@ -509,7 +514,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>44576</v>
       </c>
@@ -523,7 +528,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>44577</v>
       </c>
@@ -537,7 +542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>44578</v>
       </c>
@@ -551,7 +556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>44579</v>
       </c>
@@ -565,7 +570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>44580</v>
       </c>
@@ -579,7 +584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>44581</v>
       </c>
@@ -593,7 +598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>44582</v>
       </c>
@@ -607,7 +612,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>44583</v>
       </c>
@@ -621,7 +626,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>44584</v>
       </c>
@@ -635,7 +640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>44585</v>
       </c>
@@ -649,7 +654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>44586</v>
       </c>
@@ -663,7 +668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>44587</v>
       </c>
@@ -677,7 +682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>44588</v>
       </c>
@@ -691,7 +696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>44589</v>
       </c>
@@ -705,7 +710,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>44590</v>
       </c>
@@ -719,7 +724,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>44591</v>
       </c>
@@ -733,7 +738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>44592</v>
       </c>
@@ -747,7 +752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>44593</v>
       </c>
@@ -761,7 +766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>44594</v>
       </c>
@@ -775,7 +780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>44595</v>
       </c>
@@ -789,7 +794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>44596</v>
       </c>
@@ -803,7 +808,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>44597</v>
       </c>
@@ -817,7 +822,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>44597</v>
       </c>
@@ -831,7 +836,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>44598</v>
       </c>
@@ -845,7 +850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>44599</v>
       </c>
@@ -859,7 +864,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>44599</v>
       </c>
@@ -873,7 +878,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>44600</v>
       </c>
@@ -887,7 +892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>44601</v>
       </c>
@@ -901,7 +906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>44602</v>
       </c>
@@ -915,7 +920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>44603</v>
       </c>
@@ -929,7 +934,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>44604</v>
       </c>
@@ -943,7 +948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>44605</v>
       </c>
@@ -957,7 +962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>44606</v>
       </c>
@@ -971,7 +976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>44607</v>
       </c>
@@ -985,7 +990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>44608</v>
       </c>
@@ -999,7 +1004,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>44609</v>
       </c>
@@ -1013,7 +1018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>44610</v>
       </c>
@@ -1027,7 +1032,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>44611</v>
       </c>
@@ -1041,7 +1046,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>44612</v>
       </c>
@@ -1055,7 +1060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>44613</v>
       </c>
@@ -1069,7 +1074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>44614</v>
       </c>
@@ -1083,7 +1088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>44615</v>
       </c>
@@ -1097,7 +1102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>44616</v>
       </c>
@@ -1111,7 +1116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>44617</v>
       </c>
@@ -1125,7 +1130,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>44618</v>
       </c>
@@ -1139,7 +1144,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>44619</v>
       </c>
@@ -1153,7 +1158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>44620</v>
       </c>
@@ -1176,13 +1181,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A580941-C205-4E4A-8D50-F6858536C967}">
   <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1193,7 +1198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>44565</v>
       </c>
@@ -1204,7 +1209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>44566</v>
       </c>
@@ -1215,7 +1220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>44567</v>
       </c>
@@ -1226,7 +1231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>44568</v>
       </c>
@@ -1237,7 +1242,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>44569</v>
       </c>
@@ -1248,7 +1253,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>44570</v>
       </c>
@@ -1259,7 +1264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>44571</v>
       </c>
@@ -1270,7 +1275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>44572</v>
       </c>
@@ -1281,7 +1286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>44573</v>
       </c>
@@ -1292,7 +1297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>44574</v>
       </c>
@@ -1303,7 +1308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>44575</v>
       </c>
@@ -1314,7 +1319,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>44576</v>
       </c>
@@ -1325,7 +1330,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>44577</v>
       </c>
@@ -1336,7 +1341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>44578</v>
       </c>
@@ -1347,7 +1352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>44579</v>
       </c>
@@ -1358,7 +1363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>44580</v>
       </c>
@@ -1369,7 +1374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>44581</v>
       </c>
@@ -1380,7 +1385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>44582</v>
       </c>
@@ -1391,7 +1396,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>44583</v>
       </c>
@@ -1402,7 +1407,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>44584</v>
       </c>
@@ -1413,7 +1418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>44585</v>
       </c>
@@ -1424,7 +1429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>44586</v>
       </c>
@@ -1435,7 +1440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>44587</v>
       </c>
@@ -1446,7 +1451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>44588</v>
       </c>
@@ -1457,7 +1462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>44589</v>
       </c>
@@ -1468,7 +1473,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>44590</v>
       </c>
@@ -1479,7 +1484,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>44591</v>
       </c>
@@ -1490,7 +1495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>44592</v>
       </c>
@@ -1501,7 +1506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>44593</v>
       </c>
@@ -1512,7 +1517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>44594</v>
       </c>
@@ -1523,7 +1528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>44595</v>
       </c>
@@ -1534,7 +1539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>44596</v>
       </c>
@@ -1545,7 +1550,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>44597</v>
       </c>
@@ -1556,7 +1561,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>44597</v>
       </c>
@@ -1567,7 +1572,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>44598</v>
       </c>
@@ -1578,7 +1583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>44599</v>
       </c>
@@ -1589,7 +1594,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>44599</v>
       </c>
@@ -1600,7 +1605,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>44600</v>
       </c>
@@ -1611,7 +1616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>44601</v>
       </c>
@@ -1622,7 +1627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>44602</v>
       </c>
@@ -1633,7 +1638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>44603</v>
       </c>
@@ -1644,7 +1649,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>44604</v>
       </c>
@@ -1655,7 +1660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>44605</v>
       </c>
@@ -1666,7 +1671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>44606</v>
       </c>
@@ -1677,7 +1682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>44607</v>
       </c>
@@ -1688,7 +1693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>44608</v>
       </c>
@@ -1699,7 +1704,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>44609</v>
       </c>
@@ -1710,7 +1715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>44610</v>
       </c>
@@ -1721,7 +1726,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>44611</v>
       </c>
@@ -1732,7 +1737,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>44612</v>
       </c>
@@ -1743,7 +1748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>44613</v>
       </c>
@@ -1754,7 +1759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>44614</v>
       </c>
@@ -1765,7 +1770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>44615</v>
       </c>
@@ -1776,7 +1781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>44616</v>
       </c>
@@ -1787,7 +1792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>44617</v>
       </c>
@@ -1798,7 +1803,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>44618</v>
       </c>
@@ -1809,7 +1814,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>44619</v>
       </c>
@@ -1820,7 +1825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>44620</v>
       </c>
@@ -1828,6 +1833,1203 @@
         <v>10</v>
       </c>
       <c r="C59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B261DE69-D208-49F3-A5CB-5FAD59CCBF4A}">
+  <dimension ref="A1:D59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>44565</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>44566</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>44567</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>44568</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>35</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>44569</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1">
+        <v>45</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>44570</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>44571</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>44572</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>44573</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>44574</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>44575</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1">
+        <v>35</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>44576</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1">
+        <v>45</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>44577</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>44578</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>44579</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>44580</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>44581</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>44582</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="1">
+        <v>35</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>44583</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="1">
+        <v>45</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>44584</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>44585</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>44586</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>44587</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>44588</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>44589</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="1">
+        <v>35</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>44590</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="1">
+        <v>45</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>44591</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>44592</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>44593</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>44594</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>44595</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>44596</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="1">
+        <v>35</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>44597</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="1">
+        <v>45</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>44597</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="1">
+        <v>299</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>44598</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>44599</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="1">
+        <v>535</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>44599</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="1">
+        <v>30</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>44600</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>44601</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>44602</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>44603</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="1">
+        <v>35</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>44604</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>44605</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>44606</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>44607</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>44608</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="1">
+        <v>285</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>44609</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>44610</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="1">
+        <v>35</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
+        <v>44611</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="1">
+        <v>45</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
+        <v>44612</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <v>44613</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
+        <v>44614</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
+        <v>44615</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
+        <v>44616</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
+        <v>44617</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="1">
+        <v>70</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
+        <v>44618</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="1">
+        <v>45</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="2">
+        <v>44619</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
+        <v>44620</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37B79D3-F261-4B09-86E1-111A8A5A0D0E}">
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>44593</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>44594</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>44595</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>44596</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>44597</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>44597</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>44598</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>44599</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>44599</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>44600</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>44601</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>44602</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>44603</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>44604</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>44605</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>44606</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>44607</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>44608</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="1">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>44609</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>44610</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>44611</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>44612</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>44613</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>44614</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>44615</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>44616</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>44617</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>44618</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>44619</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>44620</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="1">
         <v>0</v>
       </c>
     </row>
